--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432">
   <si>
     <t>Step No</t>
   </si>
@@ -644,6 +645,45 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1290,9 +1330,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1320,18 +1360,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,30 +1399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1389,9 +1414,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1406,7 +1446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,13 +1460,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1449,8 +1488,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,7 +1531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,6 +1544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,19 +1573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,7 +1597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,7 +1621,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,73 +1693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,7 +1856,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1834,130 +1874,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1968,8 +2008,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2032,6 +2072,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2322,10 +2377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="H221" sqref="A2:H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4288,7 +4343,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>35</v>
@@ -4296,7 +4351,9 @@
       <c r="D90" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E90" s="6"/>
+      <c r="E90" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="F90" s="6" t="s">
         <v>207</v>
       </c>
@@ -4315,7 +4372,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -4326,17 +4383,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
@@ -4344,15 +4401,23 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7">
-        <v>1</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8">
@@ -4360,20 +4425,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E94" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="F94" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -4382,18 +4449,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -4402,20 +4471,18 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E96" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6">
+        <v>4</v>
+      </c>
       <c r="F96" s="6" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="H96" s="6"/>
     </row>
@@ -4430,14 +4497,14 @@
         <v>35</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4451,7 +4518,7 @@
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -4462,23 +4529,17 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E99" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8">
@@ -4486,23 +4547,15 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8">
@@ -4510,22 +4563,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="7">
-        <v>9889656446</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -4534,20 +4585,18 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E102" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6">
+        <v>3</v>
+      </c>
       <c r="F102" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -4556,18 +4605,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4576,20 +4627,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4598,21 +4649,15 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>236</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7">
+        <v>2</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8">
@@ -4620,20 +4665,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E106" s="6"/>
+        <v>234</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="F106" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4642,20 +4689,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D107" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4664,20 +4713,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E108" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="E108" s="6">
+        <v>9889656446</v>
+      </c>
       <c r="F108" s="6" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4686,20 +4737,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4708,20 +4759,18 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E110" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6">
+        <v>4</v>
+      </c>
       <c r="F110" s="6" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4730,20 +4779,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -4752,20 +4801,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -4774,111 +4823,131 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7">
-        <v>5</v>
-      </c>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" s="4" customFormat="1" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" s="4" customFormat="1" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7">
-        <v>1</v>
-      </c>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" s="4" customFormat="1" spans="1:8">
+      <c r="F116" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" s="4" customFormat="1" spans="1:8">
+    <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6">
-        <v>5</v>
-      </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+        <v>246</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8">
@@ -4886,15 +4955,21 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7">
-        <v>5</v>
-      </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8">
@@ -4902,24 +4977,18 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6">
+        <v>5</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" s="4" customFormat="1" spans="1:8">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -4930,18 +4999,18 @@
         <v>15</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" s="4" customFormat="1" spans="1:8">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -4951,80 +5020,68 @@
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" s="4" customFormat="1" spans="1:8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" s="4" customFormat="1" spans="1:8">
       <c r="A124" s="6">
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>264</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" s="4" customFormat="1" spans="1:8">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>270</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7">
+        <v>5</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8">
@@ -5032,23 +5089,15 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>275</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6">
+        <v>5</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
@@ -5062,14 +5111,14 @@
         <v>35</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -5078,18 +5127,20 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="H128" s="6"/>
     </row>
@@ -5098,11 +5149,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
+      <c r="E129" s="7">
+        <v>20</v>
+      </c>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
@@ -5112,18 +5165,20 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="H130" s="6"/>
     </row>
@@ -5132,20 +5187,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -5154,98 +5211,106 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6">
-        <v>5</v>
-      </c>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" s="4" customFormat="1" spans="1:8">
+    <row r="133" spans="1:8">
       <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="F133" s="7" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" s="4" customFormat="1" spans="1:8">
+    <row r="134" spans="1:8">
       <c r="A134" s="6">
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6">
-        <v>1</v>
-      </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" s="4" customFormat="1" spans="1:8">
+    <row r="135" spans="1:8">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7">
         <v>20</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" s="4" customFormat="1" spans="1:8">
+      <c r="F135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" s="4" customFormat="1" spans="1:8">
+    <row r="137" spans="1:8">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -5255,10 +5320,14 @@
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7">
-        <v>5</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8">
@@ -5269,17 +5338,17 @@
         <v>14</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -5288,59 +5357,53 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>284</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>5</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" s="4" customFormat="1" spans="1:8">
       <c r="A140" s="6">
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6">
-        <v>5</v>
-      </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" s="4" customFormat="1" spans="1:8">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>287</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7">
+        <v>1</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
     <row r="142" s="4" customFormat="1" spans="1:8">
@@ -5348,16 +5411,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6">
-        <v>5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
+      <c r="H142" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" s="4" customFormat="1" spans="1:8">
       <c r="A143" s="7">
@@ -5367,14 +5434,18 @@
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="H143" s="7"/>
     </row>
     <row r="144" s="4" customFormat="1" spans="1:8">
@@ -5382,24 +5453,18 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6">
+        <v>5</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" s="4" customFormat="1" spans="1:8">
+    <row r="145" spans="1:8">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -5410,14 +5475,18 @@
         <v>35</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
+      <c r="F145" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" s="4" customFormat="1" spans="1:8">
+    <row r="146" spans="1:8">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -5425,41 +5494,37 @@
         <v>14</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>176</v>
+        <v>297</v>
       </c>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" s="4" customFormat="1" spans="1:8">
+    <row r="147" spans="1:8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>292</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
       <c r="E147" s="7">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" s="4" customFormat="1" spans="1:8">
+    <row r="148" spans="1:8">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -5470,14 +5535,14 @@
         <v>35</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="H148" s="6"/>
     </row>
@@ -5491,7 +5556,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
@@ -5502,17 +5567,15 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>264</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -5522,22 +5585,20 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>273</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -5552,15 +5613,11 @@
         <v>35</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E152" s="6"/>
-      <c r="F152" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
     <row r="153" s="4" customFormat="1" spans="1:8">
@@ -5568,15 +5625,21 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7">
-        <v>2</v>
-      </c>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H153" s="7"/>
     </row>
     <row r="154" s="4" customFormat="1" spans="1:8">
@@ -5584,15 +5647,17 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E154" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="E154" s="6">
+        <v>200</v>
+      </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -5602,19 +5667,21 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H155" s="7"/>
     </row>
     <row r="156" s="4" customFormat="1" spans="1:8">
@@ -5622,18 +5689,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6" t="s">
-        <v>296</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6">
+        <v>3</v>
+      </c>
+      <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
@@ -5642,12 +5705,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
@@ -5658,16 +5725,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+        <v>284</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="F158" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H158" s="6"/>
     </row>
@@ -5676,15 +5749,21 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7">
-        <v>10</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H159" s="7"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:8">
@@ -5692,21 +5771,15 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>301</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6">
+        <v>2</v>
+      </c>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
     <row r="161" s="4" customFormat="1" spans="1:8">
@@ -5714,21 +5787,17 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E161" s="7"/>
-      <c r="F161" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>305</v>
-      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
     <row r="162" s="4" customFormat="1" spans="1:8">
@@ -5736,21 +5805,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>287</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
     <row r="163" s="4" customFormat="1" spans="1:8">
@@ -5758,14 +5825,18 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7">
-        <v>5</v>
-      </c>
-      <c r="F163" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
@@ -5774,23 +5845,15 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>309</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6">
+        <v>10</v>
+      </c>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
     <row r="165" s="4" customFormat="1" spans="1:8">
@@ -5798,17 +5861,17 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
+      <c r="G165" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="H165" s="7"/>
     </row>
     <row r="166" s="4" customFormat="1" spans="1:8">
@@ -5821,7 +5884,7 @@
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -5832,19 +5895,21 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E167" s="7">
-        <v>10002</v>
-      </c>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="H167" s="7"/>
     </row>
     <row r="168" s="4" customFormat="1" spans="1:8">
@@ -5852,17 +5917,21 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
+      <c r="F168" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="H168" s="6"/>
     </row>
     <row r="169" s="4" customFormat="1" spans="1:8">
@@ -5870,15 +5939,21 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7">
-        <v>1</v>
-      </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="H169" s="7"/>
     </row>
     <row r="170" s="4" customFormat="1" spans="1:8">
@@ -5886,15 +5961,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E170" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6">
+        <v>5</v>
+      </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -5904,17 +5977,23 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
+        <v>319</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="H171" s="7"/>
     </row>
     <row r="172" s="4" customFormat="1" spans="1:8">
@@ -5925,18 +6004,14 @@
         <v>14</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="E172" s="6"/>
-      <c r="F172" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>176</v>
-      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
     <row r="173" s="4" customFormat="1" spans="1:8">
@@ -5944,15 +6019,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E173" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7">
+        <v>1</v>
+      </c>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
@@ -5962,21 +6035,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E174" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
     <row r="175" s="4" customFormat="1" spans="1:8">
@@ -5984,17 +6055,15 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E175" s="7">
-        <v>200</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
@@ -6004,21 +6073,15 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6">
+        <v>1</v>
+      </c>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
     <row r="177" s="4" customFormat="1" spans="1:8">
@@ -6026,13 +6089,15 @@
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7">
-        <v>3</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
@@ -6042,17 +6107,15 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>264</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -6062,22 +6125,20 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>273</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E179" s="7"/>
       <c r="F179" s="7" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -6092,15 +6153,11 @@
         <v>35</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E180" s="6"/>
-      <c r="F180" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
     <row r="181" s="4" customFormat="1" spans="1:8">
@@ -6108,15 +6165,21 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7">
-        <v>2</v>
-      </c>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H181" s="7"/>
     </row>
     <row r="182" s="4" customFormat="1" spans="1:8">
@@ -6124,15 +6187,17 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E182" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="E182" s="6">
+        <v>200</v>
+      </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -6142,19 +6207,21 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H183" s="7"/>
     </row>
     <row r="184" s="4" customFormat="1" spans="1:8">
@@ -6162,15 +6229,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E184" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6">
+        <v>3</v>
+      </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -6180,12 +6245,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
@@ -6196,16 +6265,22 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+        <v>284</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="F186" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H186" s="6"/>
     </row>
@@ -6214,15 +6289,21 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7">
-        <v>10</v>
-      </c>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H187" s="7"/>
     </row>
     <row r="188" s="4" customFormat="1" spans="1:8">
@@ -6230,21 +6311,15 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>305</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6">
+        <v>2</v>
+      </c>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
     <row r="189" s="4" customFormat="1" spans="1:8">
@@ -6258,15 +6333,11 @@
         <v>35</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>287</v>
-      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
     <row r="190" s="4" customFormat="1" spans="1:8">
@@ -6274,12 +6345,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -6290,23 +6365,17 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>309</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
       <c r="H191" s="7"/>
     </row>
     <row r="192" s="4" customFormat="1" spans="1:8">
@@ -6314,16 +6383,12 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>316</v>
+        <v>11</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6">
+        <v>10</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -6334,19 +6399,17 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="H193" s="7"/>
     </row>
     <row r="194" s="4" customFormat="1" spans="1:8">
@@ -6354,16 +6417,12 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>107</v>
+        <v>11</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6">
+        <v>10</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -6374,19 +6433,21 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E195" s="7">
-        <v>2</v>
-      </c>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
+        <v>316</v>
+      </c>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="H195" s="7"/>
     </row>
     <row r="196" s="4" customFormat="1" spans="1:8">
@@ -6394,19 +6455,21 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E196" s="6">
-        <v>10002</v>
-      </c>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>300</v>
+      </c>
       <c r="H196" s="6"/>
     </row>
     <row r="197" s="4" customFormat="1" spans="1:8">
@@ -6419,7 +6482,7 @@
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
@@ -6430,17 +6493,23 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
+        <v>319</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="H198" s="6"/>
     </row>
     <row r="199" s="4" customFormat="1" spans="1:8">
@@ -6448,21 +6517,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
       <c r="H199" s="7"/>
     </row>
     <row r="200" s="4" customFormat="1" spans="1:8">
@@ -6470,15 +6537,17 @@
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E200" s="6"/>
+        <v>330</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -6488,21 +6557,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
       <c r="H201" s="7"/>
     </row>
     <row r="202" s="4" customFormat="1" spans="1:8">
@@ -6510,16 +6577,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="E202" s="6">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -6530,21 +6597,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E203" s="7">
+        <v>10002</v>
+      </c>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
       <c r="H203" s="7"/>
     </row>
     <row r="204" s="4" customFormat="1" spans="1:8">
@@ -6557,7 +6622,7 @@
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -6568,17 +6633,15 @@
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>264</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
@@ -6588,22 +6651,20 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>273</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E206" s="6"/>
       <c r="F206" s="6" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="H206" s="6"/>
     </row>
@@ -6618,15 +6679,11 @@
         <v>35</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E207" s="7"/>
-      <c r="F207" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>93</v>
-      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
     <row r="208" s="4" customFormat="1" spans="1:8">
@@ -6634,15 +6691,21 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6">
-        <v>2</v>
-      </c>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="H208" s="6"/>
     </row>
     <row r="209" s="4" customFormat="1" spans="1:8">
@@ -6650,15 +6713,17 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E209" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="E209" s="7">
+        <v>200</v>
+      </c>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
@@ -6668,19 +6733,21 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H210" s="6"/>
     </row>
     <row r="211" s="4" customFormat="1" spans="1:8">
@@ -6688,15 +6755,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E211" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7">
+        <v>3</v>
+      </c>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
@@ -6706,12 +6771,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -6722,16 +6791,22 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="F213" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -6740,26 +6815,157 @@
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" s="4" customFormat="1" spans="1:8">
+      <c r="A215" s="7">
+        <v>214</v>
+      </c>
+      <c r="B215" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6">
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7">
+        <v>2</v>
+      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" s="4" customFormat="1" spans="1:8">
+      <c r="A216" s="6">
+        <v>215</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" s="4" customFormat="1" spans="1:8">
+      <c r="A217" s="7">
+        <v>216</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" s="4" customFormat="1" spans="1:8">
+      <c r="A218" s="6">
+        <v>217</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" s="4" customFormat="1" spans="1:8">
+      <c r="A219" s="7">
+        <v>218</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7">
         <v>10</v>
       </c>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+    </row>
+    <row r="220" s="4" customFormat="1" spans="1:8">
+      <c r="A220" s="6">
+        <v>219</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" s="4" customFormat="1" spans="1:8">
+      <c r="A221" s="7">
+        <v>220</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7">
+        <v>10</v>
+      </c>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B162 B163 B168 B188 B189 B190 B193 B194 B195 B196 B1:B141 B143:B152 B153:B161 B164:B165 B166:B167 B169:B170 B171:B180 B181:B187 B191:B192 B198:B207 B208:B214 B215:B1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90 C90 B91 C91 B92:B94 B95:B96 C92:C94 C95:C96">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149 B169 B170 B175 B195 B196 B197 B200 B201 B202 B203 B1:B89 B97:B148 B150:B159 B160:B168 B171:B172 B173:B174 B176:B177 B178:B187 B188:B194 B198:B199 B205:B214 B215:B221 B222:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142 C162 C168 C169 C188 C189 C195 C196 C1:C141 C143:C152 C153:C161 C163:C165 C166:C167 C171:C180 C181:C187 C190:C192 C193:C194 C198:C207 C208:C214 C215:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C149 C169 C175 C176 C195 C196 C202 C203 C1:C89 C97:C148 C150:C159 C160:C168 C170:C172 C173:C174 C178:C187 C188:C194 C197:C199 C200:C201 C205:C214 C215:C221 C222:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B197">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B204">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6790,7 +6996,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6798,20 +7004,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6822,20 +7028,20 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -6843,47 +7049,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6893,12 +7099,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6908,55 +7114,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6966,152 +7172,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7121,214 +7327,214 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="3:3">
@@ -7338,7 +7544,7 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -1330,10 +1330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1360,11 +1360,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1376,16 +1413,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,30 +1443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,7 +1451,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,27 +1472,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1481,24 +1496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1525,13 +1525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,7 +1573,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,31 +1669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,7 +1687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,103 +1705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,8 +1758,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1769,7 +1771,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,6 +1787,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1819,15 +1839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1842,27 +1853,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1874,130 +1874,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2379,8 +2379,8 @@
   <sheetPr/>
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="H221" sqref="A2:H221"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2656,7 +2656,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -3682,7 +3682,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
@@ -4124,7 +4124,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>12</v>
@@ -4184,7 +4184,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>12</v>
@@ -4328,7 +4328,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>12</v>
@@ -4476,7 +4476,7 @@
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>12</v>
@@ -4764,7 +4764,7 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>12</v>
@@ -5556,7 +5556,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
@@ -5694,7 +5694,7 @@
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -5776,7 +5776,7 @@
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -5966,7 +5966,7 @@
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -6316,7 +6316,7 @@
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -6760,7 +6760,7 @@
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
@@ -6842,7 +6842,7 @@
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72DF8E0-11A1-46AE-B388-4CC46A30AABD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="431">
   <si>
     <t>Step No</t>
   </si>
@@ -384,9 +390,6 @@
   </si>
   <si>
     <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>primary</t>
   </si>
   <si>
     <t>APP_AUTHORIZE_PERSON</t>
@@ -1328,14 +1331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,152 +1356,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,198 +1372,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1720,16 +1387,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,10 +1404,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1748,258 +1415,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2011,68 +1436,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2087,7 +1468,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2102,18 +1483,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2371,29 +1752,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.5714285714286" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3359,7 +2740,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>35</v>
@@ -3367,8 +2748,8 @@
       <c r="D45" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>119</v>
+      <c r="E45" s="7">
+        <v>1</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -3427,7 +2808,7 @@
         <v>35</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -3445,13 +2826,13 @@
         <v>15</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>30</v>
@@ -3469,13 +2850,13 @@
         <v>15</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>34</v>
@@ -3493,16 +2874,16 @@
         <v>35</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -3517,16 +2898,16 @@
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -3541,13 +2922,13 @@
         <v>35</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>105</v>
@@ -3565,13 +2946,13 @@
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>109</v>
@@ -3589,16 +2970,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="7">
         <v>10001</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3613,16 +2994,16 @@
         <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="6">
         <v>9789123456</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H56" s="6"/>
     </row>
@@ -3637,16 +3018,16 @@
         <v>15</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3703,16 +3084,16 @@
         <v>35</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -3737,16 +3118,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -3761,16 +3142,16 @@
         <v>35</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3785,16 +3166,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3809,16 +3190,16 @@
         <v>35</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3833,16 +3214,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H66" s="6"/>
     </row>
@@ -3857,16 +3238,16 @@
         <v>15</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" s="7">
         <v>1235647899</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3881,7 +3262,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3899,14 +3280,14 @@
         <v>35</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3921,16 +3302,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E70" s="6">
         <v>97890456789</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="H70" s="6"/>
     </row>
@@ -3945,14 +3326,14 @@
         <v>35</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3967,13 +3348,13 @@
         <v>35</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E72" s="6">
         <v>1230</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>22</v>
@@ -3991,13 +3372,13 @@
         <v>35</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" s="7">
         <v>1550</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>22</v>
@@ -4015,11 +3396,11 @@
         <v>35</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>22</v>
@@ -4037,14 +3418,14 @@
         <v>35</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -4059,14 +3440,14 @@
         <v>35</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H76" s="6"/>
     </row>
@@ -4081,14 +3462,14 @@
         <v>35</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -4145,7 +3526,7 @@
         <v>35</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -4205,16 +3586,16 @@
         <v>35</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -4239,16 +3620,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -4263,14 +3644,14 @@
         <v>35</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="H86" s="6"/>
     </row>
@@ -4285,14 +3666,14 @@
         <v>35</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -4349,16 +3730,16 @@
         <v>35</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -4383,16 +3764,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -4407,16 +3788,16 @@
         <v>15</v>
       </c>
       <c r="D93" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -4431,16 +3812,16 @@
         <v>15</v>
       </c>
       <c r="D94" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -4497,14 +3878,14 @@
         <v>35</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4535,7 +3916,7 @@
         <v>35</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -4569,14 +3950,14 @@
         <v>35</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -4593,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="F102" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -4611,14 +3992,14 @@
         <v>35</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4633,14 +4014,14 @@
         <v>35</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4671,16 +4052,16 @@
         <v>15</v>
       </c>
       <c r="D106" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4695,16 +4076,16 @@
         <v>15</v>
       </c>
       <c r="D107" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4719,16 +4100,16 @@
         <v>15</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E108" s="6">
         <v>9889656446</v>
       </c>
       <c r="F108" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4743,14 +4124,14 @@
         <v>15</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4779,20 +4160,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -4801,20 +4182,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -4823,20 +4204,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -4845,20 +4226,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -4867,20 +4248,20 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -4889,20 +4270,20 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -4911,20 +4292,20 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -4933,20 +4314,20 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H118" s="6"/>
     </row>
@@ -4961,14 +4342,14 @@
         <v>35</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -4988,7 +4369,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" s="4" customFormat="1" spans="1:8">
+    <row r="121" spans="1:8">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -5010,7 +4391,7 @@
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" s="4" customFormat="1" spans="1:8">
+    <row r="122" spans="1:8">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -5026,7 +4407,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:8">
+    <row r="123" spans="1:8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -5046,7 +4427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="1" spans="1:8">
+    <row r="124" spans="1:8">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -5068,7 +4449,7 @@
       </c>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" s="4" customFormat="1" spans="1:8">
+    <row r="125" spans="1:8">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -5111,14 +4492,14 @@
         <v>35</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -5133,14 +4514,14 @@
         <v>15</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="H128" s="6"/>
     </row>
@@ -5171,14 +4552,14 @@
         <v>35</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H130" s="6"/>
     </row>
@@ -5193,16 +4574,16 @@
         <v>15</v>
       </c>
       <c r="D131" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E131" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="F131" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="G131" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -5217,16 +4598,16 @@
         <v>35</v>
       </c>
       <c r="D132" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="F132" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="G132" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="H132" s="6"/>
     </row>
@@ -5235,22 +4616,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="7" t="s">
+      <c r="E133" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="F133" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="G133" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -5269,10 +4650,10 @@
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="H134" s="6"/>
     </row>
@@ -5301,7 +4682,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -5341,14 +4722,14 @@
         <v>15</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -5368,7 +4749,7 @@
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" s="4" customFormat="1" spans="1:8">
+    <row r="140" spans="1:8">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -5390,7 +4771,7 @@
       </c>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" s="4" customFormat="1" spans="1:8">
+    <row r="141" spans="1:8">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -5406,7 +4787,7 @@
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" s="4" customFormat="1" spans="1:8">
+    <row r="142" spans="1:8">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -5426,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" s="4" customFormat="1" spans="1:8">
+    <row r="143" spans="1:8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -5448,7 +4829,7 @@
       </c>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
+    <row r="144" spans="1:8">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -5475,14 +4856,14 @@
         <v>35</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -5497,14 +4878,14 @@
         <v>15</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="H146" s="6"/>
     </row>
@@ -5535,18 +4916,18 @@
         <v>35</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G148" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" s="4" customFormat="1" spans="1:8">
+    <row r="149" spans="1:8">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -5562,7 +4943,7 @@
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" s="4" customFormat="1" spans="1:8">
+    <row r="150" spans="1:8">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -5573,14 +4954,14 @@
         <v>35</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" s="4" customFormat="1" spans="1:8">
+    <row r="151" spans="1:8">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -5591,18 +4972,18 @@
         <v>35</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" s="4" customFormat="1" spans="1:8">
+    <row r="152" spans="1:8">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -5613,14 +4994,14 @@
         <v>35</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" s="4" customFormat="1" spans="1:8">
+    <row r="153" spans="1:8">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -5631,18 +5012,18 @@
         <v>35</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G153" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" s="4" customFormat="1" spans="1:8">
+    <row r="154" spans="1:8">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -5653,7 +5034,7 @@
         <v>35</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E154" s="6">
         <v>200</v>
@@ -5662,7 +5043,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" s="4" customFormat="1" spans="1:8">
+    <row r="155" spans="1:8">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -5673,7 +5054,7 @@
         <v>35</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
@@ -5684,7 +5065,7 @@
       </c>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" s="4" customFormat="1" spans="1:8">
+    <row r="156" spans="1:8">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -5700,7 +5081,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" s="4" customFormat="1" spans="1:8">
+    <row r="157" spans="1:8">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -5711,40 +5092,40 @@
         <v>15</v>
       </c>
       <c r="D157" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E157" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" s="4" customFormat="1" spans="1:8">
+    <row r="158" spans="1:8">
       <c r="A158" s="6">
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="F158" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="G158" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G158" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" s="4" customFormat="1" spans="1:8">
+    <row r="159" spans="1:8">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -5755,7 +5136,7 @@
         <v>35</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7" t="s">
@@ -5766,7 +5147,7 @@
       </c>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" s="4" customFormat="1" spans="1:8">
+    <row r="160" spans="1:8">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -5782,7 +5163,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" s="4" customFormat="1" spans="1:8">
+    <row r="161" spans="1:8">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -5793,14 +5174,14 @@
         <v>35</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" s="4" customFormat="1" spans="1:8">
+    <row r="162" spans="1:8">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -5811,7 +5192,7 @@
         <v>35</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>99</v>
@@ -5820,7 +5201,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" s="4" customFormat="1" spans="1:8">
+    <row r="163" spans="1:8">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -5831,16 +5212,16 @@
         <v>35</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" s="4" customFormat="1" spans="1:8">
+    <row r="164" spans="1:8">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -5856,25 +5237,25 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" s="4" customFormat="1" spans="1:8">
+    <row r="165" spans="1:8">
       <c r="A165" s="7">
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G165" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" s="4" customFormat="1" spans="1:8">
+    <row r="166" spans="1:8">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -5890,51 +5271,51 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" s="4" customFormat="1" spans="1:8">
+    <row r="167" spans="1:8">
       <c r="A167" s="7">
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G167" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" s="4" customFormat="1" spans="1:8">
+    <row r="168" spans="1:8">
       <c r="A168" s="6">
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" s="4" customFormat="1" spans="1:8">
+    <row r="169" spans="1:8">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -5945,18 +5326,18 @@
         <v>35</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G169" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" s="4" customFormat="1" spans="1:8">
+    <row r="170" spans="1:8">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -5972,7 +5353,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" s="4" customFormat="1" spans="1:8">
+    <row r="171" spans="1:8">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -5983,20 +5364,20 @@
         <v>35</v>
       </c>
       <c r="D171" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="F171" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="G171" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" s="4" customFormat="1" spans="1:8">
+    <row r="172" spans="1:8">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -6007,14 +5388,14 @@
         <v>15</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" s="4" customFormat="1" spans="1:8">
+    <row r="173" spans="1:8">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -6030,18 +5411,18 @@
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" s="4" customFormat="1" spans="1:8">
+    <row r="174" spans="1:8">
       <c r="A174" s="6">
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E174" s="6">
         <v>10002</v>
@@ -6050,7 +5431,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" s="4" customFormat="1" spans="1:8">
+    <row r="175" spans="1:8">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -6061,14 +5442,14 @@
         <v>15</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" s="4" customFormat="1" spans="1:8">
+    <row r="176" spans="1:8">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -6084,25 +5465,25 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" s="4" customFormat="1" spans="1:8">
+    <row r="177" spans="1:8">
       <c r="A177" s="7">
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" s="4" customFormat="1" spans="1:8">
+    <row r="178" spans="1:8">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -6113,14 +5494,14 @@
         <v>35</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" s="4" customFormat="1" spans="1:8">
+    <row r="179" spans="1:8">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -6131,18 +5512,18 @@
         <v>35</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G179" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" s="4" customFormat="1" spans="1:8">
+    <row r="180" spans="1:8">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -6153,14 +5534,14 @@
         <v>35</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" s="4" customFormat="1" spans="1:8">
+    <row r="181" spans="1:8">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -6171,18 +5552,18 @@
         <v>35</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G181" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" s="4" customFormat="1" spans="1:8">
+    <row r="182" spans="1:8">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -6193,7 +5574,7 @@
         <v>35</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E182" s="6">
         <v>200</v>
@@ -6202,7 +5583,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" s="4" customFormat="1" spans="1:8">
+    <row r="183" spans="1:8">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -6213,7 +5594,7 @@
         <v>35</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="7" t="s">
@@ -6224,7 +5605,7 @@
       </c>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" s="4" customFormat="1" spans="1:8">
+    <row r="184" spans="1:8">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -6240,7 +5621,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" s="4" customFormat="1" spans="1:8">
+    <row r="185" spans="1:8">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -6251,40 +5632,40 @@
         <v>15</v>
       </c>
       <c r="D185" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E185" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:8">
+    <row r="186" spans="1:8">
       <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D186" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D186" s="6" t="s">
+      <c r="E186" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="F186" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="G186" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G186" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" s="4" customFormat="1" spans="1:8">
+    <row r="187" spans="1:8">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -6295,7 +5676,7 @@
         <v>35</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="7" t="s">
@@ -6306,7 +5687,7 @@
       </c>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" s="4" customFormat="1" spans="1:8">
+    <row r="188" spans="1:8">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -6322,7 +5703,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" s="4" customFormat="1" spans="1:8">
+    <row r="189" spans="1:8">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -6333,14 +5714,14 @@
         <v>35</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" s="4" customFormat="1" spans="1:8">
+    <row r="190" spans="1:8">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -6351,7 +5732,7 @@
         <v>35</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>99</v>
@@ -6360,7 +5741,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" s="4" customFormat="1" spans="1:8">
+    <row r="191" spans="1:8">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -6371,14 +5752,14 @@
         <v>35</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" s="4" customFormat="1" spans="1:8">
+    <row r="192" spans="1:8">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -6394,25 +5775,25 @@
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" s="4" customFormat="1" spans="1:8">
+    <row r="193" spans="1:8">
       <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G193" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" s="4" customFormat="1" spans="1:8">
+    <row r="194" spans="1:8">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -6428,29 +5809,29 @@
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
-    <row r="195" s="4" customFormat="1" spans="1:8">
+    <row r="195" spans="1:8">
       <c r="A195" s="7">
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G195" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" s="4" customFormat="1" spans="1:8">
+    <row r="196" spans="1:8">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -6461,18 +5842,18 @@
         <v>35</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G196" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="H196" s="6"/>
     </row>
-    <row r="197" s="4" customFormat="1" spans="1:8">
+    <row r="197" spans="1:8">
       <c r="A197" s="7">
         <v>196</v>
       </c>
@@ -6488,7 +5869,7 @@
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" s="4" customFormat="1" spans="1:8">
+    <row r="198" spans="1:8">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -6499,20 +5880,20 @@
         <v>35</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H198" s="6"/>
     </row>
-    <row r="199" s="4" customFormat="1" spans="1:8">
+    <row r="199" spans="1:8">
       <c r="A199" s="7">
         <v>198</v>
       </c>
@@ -6523,16 +5904,16 @@
         <v>15</v>
       </c>
       <c r="D199" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E199" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" s="4" customFormat="1" spans="1:8">
+    <row r="200" spans="1:8">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -6543,16 +5924,16 @@
         <v>15</v>
       </c>
       <c r="D200" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E200" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
-    <row r="201" s="4" customFormat="1" spans="1:8">
+    <row r="201" spans="1:8">
       <c r="A201" s="7">
         <v>200</v>
       </c>
@@ -6563,7 +5944,7 @@
         <v>15</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>107</v>
@@ -6572,18 +5953,18 @@
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" s="4" customFormat="1" spans="1:8">
+    <row r="202" spans="1:8">
       <c r="A202" s="6">
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="E202" s="6">
         <v>2</v>
@@ -6592,18 +5973,18 @@
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" s="4" customFormat="1" spans="1:8">
+    <row r="203" spans="1:8">
       <c r="A203" s="7">
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E203" s="7">
         <v>10002</v>
@@ -6612,7 +5993,7 @@
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" s="4" customFormat="1" spans="1:8">
+    <row r="204" spans="1:8">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -6628,7 +6009,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" s="4" customFormat="1" spans="1:8">
+    <row r="205" spans="1:8">
       <c r="A205" s="7">
         <v>204</v>
       </c>
@@ -6639,14 +6020,14 @@
         <v>35</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" s="4" customFormat="1" spans="1:8">
+    <row r="206" spans="1:8">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -6657,18 +6038,18 @@
         <v>35</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G206" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G206" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H206" s="6"/>
     </row>
-    <row r="207" s="4" customFormat="1" spans="1:8">
+    <row r="207" spans="1:8">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -6679,14 +6060,14 @@
         <v>35</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" s="4" customFormat="1" spans="1:8">
+    <row r="208" spans="1:8">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -6697,18 +6078,18 @@
         <v>35</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G208" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G208" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H208" s="6"/>
     </row>
-    <row r="209" s="4" customFormat="1" spans="1:8">
+    <row r="209" spans="1:8">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -6719,7 +6100,7 @@
         <v>35</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E209" s="7">
         <v>200</v>
@@ -6728,7 +6109,7 @@
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" s="4" customFormat="1" spans="1:8">
+    <row r="210" spans="1:8">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -6739,7 +6120,7 @@
         <v>35</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6" t="s">
@@ -6750,7 +6131,7 @@
       </c>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" s="4" customFormat="1" spans="1:8">
+    <row r="211" spans="1:8">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -6766,7 +6147,7 @@
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" s="4" customFormat="1" spans="1:8">
+    <row r="212" spans="1:8">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -6777,40 +6158,40 @@
         <v>15</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E212" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" s="4" customFormat="1" spans="1:8">
+    <row r="213" spans="1:8">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D213" s="7" t="s">
+      <c r="E213" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="F213" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F213" s="7" t="s">
+      <c r="G213" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G213" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" s="4" customFormat="1" spans="1:8">
+    <row r="214" spans="1:8">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -6821,7 +6202,7 @@
         <v>35</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6" t="s">
@@ -6832,7 +6213,7 @@
       </c>
       <c r="H214" s="6"/>
     </row>
-    <row r="215" s="4" customFormat="1" spans="1:8">
+    <row r="215" spans="1:8">
       <c r="A215" s="7">
         <v>214</v>
       </c>
@@ -6848,7 +6229,7 @@
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" s="4" customFormat="1" spans="1:8">
+    <row r="216" spans="1:8">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -6859,14 +6240,14 @@
         <v>35</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
     </row>
-    <row r="217" s="4" customFormat="1" spans="1:8">
+    <row r="217" spans="1:8">
       <c r="A217" s="7">
         <v>216</v>
       </c>
@@ -6877,7 +6258,7 @@
         <v>35</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>99</v>
@@ -6886,7 +6267,7 @@
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" s="4" customFormat="1" spans="1:8">
+    <row r="218" spans="1:8">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -6897,14 +6278,14 @@
         <v>35</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" s="4" customFormat="1" spans="1:8">
+    <row r="219" spans="1:8">
       <c r="A219" s="7">
         <v>218</v>
       </c>
@@ -6920,25 +6301,25 @@
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" s="4" customFormat="1" spans="1:8">
+    <row r="220" spans="1:8">
       <c r="A220" s="6">
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G220" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="H220" s="6"/>
     </row>
-    <row r="221" s="4" customFormat="1" spans="1:8">
+    <row r="221" spans="1:8">
       <c r="A221" s="7">
         <v>220</v>
       </c>
@@ -6955,586 +6336,600 @@
       <c r="H221" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90 C90 B91 C91 B92:B94 B95:B96 C92:C94 C95:C96">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149 B169 B170 B175 B195 B196 B197 B200 B201 B202 B203 B1:B89 B97:B148 B150:B159 B160:B168 B171:B172 B173:B174 B176:B177 B178:B187 B188:B194 B198:B199 B205:B214 B215:B221 B222:B1048576">
-      <formula1>DataList!$C$2:$C$109</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C149 C169 C175 C176 C195 C196 C202 C203 C1:C89 C97:C148 C150:C159 C160:C168 C170:C172 C173:C174 C178:C187 C188:C194 C197:C199 C200:C201 C205:C214 C215:C221 C222:C1048576">
-      <formula1>DataList!$A$2:$A$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B204">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\[Prov_Patient_App_Create__PCase_Positive.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B90 C90 B91 C91 B92:B94 B95:B96 C92:C94 C95:C96</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>DataList!$C$2:$C$109</xm:f>
+          </x14:formula1>
+          <xm:sqref>B149 B169 B170 B175 B195 B196 B197 B200 B201 B202 B203 B1:B89 B97:B148 B150:B159 B160:B168 B171:B172 B173:B174 B176:B177 B178:B187 B188:B194 B198:B199 B205:B214 B215:B221 B222:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>DataList!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C149 C169 C175 C176 C195 C196 C202 C203 C1:C89 C97:C148 C150:C159 C160:C168 C170:C172 C173:C174 C178:C187 C188:C194 C197:C199 C200:C201 C205:C214 C215:C221 C222:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Patient\[PatientApp_Process_Pending_DCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B204</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>337</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>339</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>341</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>343</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>344</v>
-      </c>
-      <c r="C8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>349</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>351</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>360</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>403</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>405</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>411</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="3:3">
@@ -7544,18 +6939,17 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,397 +627,397 @@
     <t>PRIMAY_DIAGNOSIS</t>
   </si>
   <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>LANDING_ALIEN_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>Click on View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>Clicked View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENTS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Upload button</t>
+  </si>
+  <si>
+    <t>Uplod document button clicked</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>Type Description</t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>UPLOAD_SELECT_CATEGORY</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Select File</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>1. Payable to Provider submitted</t>
+  </si>
+  <si>
+    <t>Click ok to Pcase alert</t>
+  </si>
+  <si>
+    <t>Pcase alert clicked</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>2. Select Patient</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>CLAIM_UPDATE_PAYEE</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
+  </si>
+  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
-  </si>
-  <si>
-    <t>SELF_LASTPAGE</t>
-  </si>
-  <si>
-    <t>Check Self</t>
-  </si>
-  <si>
-    <t>Self checked</t>
-  </si>
-  <si>
-    <t>AGREE_CHECKBOX_STEP7</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>LANDING_ALIEN_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>1. Payable to Provider submitted</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>2. Select Patient</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>CLAIM_UPDATE_PAYEE</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
   </si>
   <si>
     <t>3. Select Other</t>
@@ -1337,10 +1337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1372,6 +1372,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1380,9 +1403,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,74 +1441,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,19 +1470,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1508,15 +1515,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,13 +1537,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,19 +1597,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,67 +1675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,7 +1693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,72 +1717,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1774,13 +1768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1790,6 +1788,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1824,32 +1837,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1868,15 +1860,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1885,13 +1868,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1903,134 +1886,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2039,9 +2022,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2427,8 +2408,8 @@
   <sheetPr/>
   <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A224"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2569,241 +2550,241 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>5</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>5</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2825,7 +2806,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2845,7 +2826,7 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2869,7 +2850,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2885,7 +2866,7 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2909,7 +2890,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2933,7 +2914,7 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2955,7 +2936,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2977,7 +2958,7 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="10">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2999,7 +2980,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3023,7 +3004,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3045,7 +3026,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3065,7 +3046,7 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3085,7 +3066,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3109,7 +3090,7 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3133,7 +3114,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -3157,7 +3138,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3181,7 +3162,7 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -3205,7 +3186,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3227,7 +3208,7 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -3249,7 +3230,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3269,7 +3250,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3293,7 +3274,7 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -3317,7 +3298,7 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3341,7 +3322,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3365,7 +3346,7 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -3389,7 +3370,7 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3413,7 +3394,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -3433,7 +3414,7 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3453,7 +3434,7 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -3473,7 +3454,7 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3495,7 +3476,7 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -3515,7 +3496,7 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="10">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3533,7 +3514,7 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -3557,7 +3538,7 @@
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3581,7 +3562,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="10">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -3605,7 +3586,7 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3629,7 +3610,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -3653,7 +3634,7 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="10">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -3677,7 +3658,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -3701,7 +3682,7 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -3725,7 +3706,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="10">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -3749,7 +3730,7 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3771,7 +3752,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -3791,7 +3772,7 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="10">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -3815,7 +3796,7 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3831,7 +3812,7 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -3849,7 +3830,7 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="10">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3873,7 +3854,7 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3897,7 +3878,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -3921,7 +3902,7 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="10">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3945,7 +3926,7 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -3969,7 +3950,7 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3987,7 +3968,7 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="10">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -4009,7 +3990,7 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -4033,7 +4014,7 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -4055,7 +4036,7 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="10">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -4079,7 +4060,7 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -4103,7 +4084,7 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -4125,7 +4106,7 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="10">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -4147,7 +4128,7 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -4169,7 +4150,7 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="8">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -4191,7 +4172,7 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="10">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4213,7 +4194,7 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -4233,7 +4214,7 @@
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="8">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -4251,7 +4232,7 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="10">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -4273,7 +4254,7 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -4293,7 +4274,7 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -4306,18 +4287,18 @@
         <v>198</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="10">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -4333,7 +4314,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -4343,37 +4324,37 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="8">
-        <v>88</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="10">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -4387,15 +4368,15 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -4417,7 +4398,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -4437,7 +4418,7 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="10">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -4447,21 +4428,21 @@
         <v>33</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -4477,7 +4458,7 @@
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -4487,15 +4468,15 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="10">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -4505,21 +4486,21 @@
         <v>15</v>
       </c>
       <c r="D96" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -4529,21 +4510,21 @@
         <v>15</v>
       </c>
       <c r="D97" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -4565,7 +4546,7 @@
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="10">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -4585,7 +4566,7 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -4595,19 +4576,19 @@
         <v>33</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="8">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -4623,7 +4604,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="10">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -4633,7 +4614,7 @@
         <v>33</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4641,7 +4622,7 @@
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -4657,7 +4638,7 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="8">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -4667,19 +4648,19 @@
         <v>33</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="10">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -4691,59 +4672,59 @@
         <v>3</v>
       </c>
       <c r="F105" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="8">
-        <v>105</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="8">
-        <v>106</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G107" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="10">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -4759,7 +4740,7 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="8">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -4769,21 +4750,21 @@
         <v>15</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="F109" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="8">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -4793,21 +4774,21 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="10">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -4817,7 +4798,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E111" s="6">
         <v>9889656446</v>
@@ -4831,7 +4812,7 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="8">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -4841,19 +4822,19 @@
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="8">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -4873,205 +4854,205 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="10">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="8">
-        <v>114</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="8">
-        <v>115</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="10">
-        <v>116</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="8">
-        <v>117</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H118" s="7"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="8">
-        <v>118</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="10">
-        <v>119</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="8">
-        <v>120</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="8">
-        <v>121</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G122" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="10">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -5087,7 +5068,7 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="8">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
@@ -5109,7 +5090,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="8">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -5125,7 +5106,7 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="10">
+      <c r="A126" s="6">
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
@@ -5145,7 +5126,7 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="8">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -5155,11 +5136,11 @@
         <v>15</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>41</v>
@@ -5167,7 +5148,7 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="8">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -5183,7 +5164,7 @@
       <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="10">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -5199,7 +5180,7 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="8">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
@@ -5209,19 +5190,19 @@
         <v>33</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="8">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -5231,19 +5212,19 @@
         <v>15</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G131" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="10">
+      <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
@@ -5259,7 +5240,7 @@
       <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="8">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -5269,19 +5250,19 @@
         <v>33</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G133" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="8">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
@@ -5291,21 +5272,21 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="F134" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G134" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="10">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -5315,45 +5296,45 @@
         <v>33</v>
       </c>
       <c r="D135" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="F135" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="G135" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="8">
-        <v>135</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="C136" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" s="7" t="s">
+      <c r="E136" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="F136" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="G136" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G136" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="8">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -5367,15 +5348,15 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="10">
+      <c r="A138" s="6">
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
@@ -5395,11 +5376,11 @@
       <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="8">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -5409,7 +5390,7 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="8">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -5429,7 +5410,7 @@
       <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="10">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -5439,19 +5420,19 @@
         <v>15</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G141" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="8">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -5467,7 +5448,7 @@
       <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="8">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -5489,7 +5470,7 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="10">
+      <c r="A144" s="6">
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -5505,7 +5486,7 @@
       <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="8">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -5525,7 +5506,7 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="8">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -5535,11 +5516,11 @@
         <v>15</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>41</v>
@@ -5547,7 +5528,7 @@
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="10">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -5563,7 +5544,7 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="8">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
@@ -5573,19 +5554,19 @@
         <v>33</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="8">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -5595,19 +5576,19 @@
         <v>15</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G149" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="10">
+      <c r="A150" s="6">
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
@@ -5623,7 +5604,7 @@
       <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="8">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -5633,19 +5614,19 @@
         <v>33</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G151" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="8">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -5661,7 +5642,7 @@
       <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="10">
+      <c r="A153" s="6">
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -5671,7 +5652,7 @@
         <v>33</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -5679,7 +5660,7 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="8">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
@@ -5689,7 +5670,7 @@
         <v>33</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7" t="s">
@@ -5701,7 +5682,7 @@
       <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="8">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -5711,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -5719,7 +5700,7 @@
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="10">
+      <c r="A156" s="6">
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -5729,7 +5710,7 @@
         <v>33</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7" t="s">
@@ -5741,7 +5722,7 @@
       <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="8">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -5751,7 +5732,7 @@
         <v>33</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E157" s="6">
         <v>200</v>
@@ -5761,7 +5742,7 @@
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="8">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
@@ -5771,7 +5752,7 @@
         <v>33</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7" t="s">
@@ -5783,7 +5764,7 @@
       <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="10">
+      <c r="A159" s="6">
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -5799,7 +5780,7 @@
       <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="8">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -5809,41 +5790,41 @@
         <v>15</v>
       </c>
       <c r="D160" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E160" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="8">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="6" t="s">
+      <c r="E161" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="F161" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="G161" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G161" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="10">
+      <c r="A162" s="6">
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -5853,7 +5834,7 @@
         <v>33</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
@@ -5865,7 +5846,7 @@
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="8">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -5881,7 +5862,7 @@
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="8">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
@@ -5891,7 +5872,7 @@
         <v>33</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -5899,7 +5880,7 @@
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="10">
+      <c r="A165" s="6">
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -5909,7 +5890,7 @@
         <v>33</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>100</v>
@@ -5919,7 +5900,7 @@
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="8">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -5929,17 +5910,17 @@
         <v>33</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="8">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
@@ -5955,25 +5936,25 @@
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="10">
+      <c r="A168" s="6">
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G168" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="8">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
@@ -5989,51 +5970,51 @@
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="8">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="6">
+        <v>170</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H170" s="7"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="10">
-        <v>170</v>
-      </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="G171" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="8">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
@@ -6043,19 +6024,19 @@
         <v>33</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G172" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="8">
+      <c r="A173" s="7">
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
@@ -6071,7 +6052,7 @@
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="10">
+      <c r="A174" s="6">
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
@@ -6081,21 +6062,21 @@
         <v>33</v>
       </c>
       <c r="D174" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E174" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="F174" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="G174" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="8">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
@@ -6105,7 +6086,7 @@
         <v>15</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -6113,7 +6094,7 @@
       <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="8">
+      <c r="A176" s="7">
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
@@ -6129,17 +6110,17 @@
       <c r="H176" s="7"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="10">
+      <c r="A177" s="6">
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E177" s="6">
         <v>10002</v>
@@ -6149,7 +6130,7 @@
       <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="8">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
@@ -6159,7 +6140,7 @@
         <v>15</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -6167,7 +6148,7 @@
       <c r="H178" s="7"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="8">
+      <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
@@ -6183,17 +6164,17 @@
       <c r="H179" s="6"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="10">
+      <c r="A180" s="6">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -6201,7 +6182,7 @@
       <c r="H180" s="7"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="8">
+      <c r="A181" s="7">
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
@@ -6211,7 +6192,7 @@
         <v>33</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -6219,7 +6200,7 @@
       <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="8">
+      <c r="A182" s="7">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -6229,7 +6210,7 @@
         <v>33</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="7" t="s">
@@ -6241,7 +6222,7 @@
       <c r="H182" s="7"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="10">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -6251,7 +6232,7 @@
         <v>33</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -6259,7 +6240,7 @@
       <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="8">
+      <c r="A184" s="7">
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
@@ -6269,7 +6250,7 @@
         <v>33</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7" t="s">
@@ -6281,7 +6262,7 @@
       <c r="H184" s="7"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="8">
+      <c r="A185" s="7">
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -6291,7 +6272,7 @@
         <v>33</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E185" s="6">
         <v>200</v>
@@ -6301,7 +6282,7 @@
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="10">
+      <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
@@ -6311,7 +6292,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7" t="s">
@@ -6323,7 +6304,7 @@
       <c r="H186" s="7"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="8">
+      <c r="A187" s="7">
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -6339,7 +6320,7 @@
       <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="8">
+      <c r="A188" s="7">
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -6349,41 +6330,41 @@
         <v>15</v>
       </c>
       <c r="D188" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E188" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="10">
+      <c r="A189" s="6">
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D189" s="6" t="s">
+      <c r="E189" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="F189" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="G189" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G189" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="8">
+      <c r="A190" s="7">
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
@@ -6393,7 +6374,7 @@
         <v>33</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7" t="s">
@@ -6405,7 +6386,7 @@
       <c r="H190" s="7"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="8">
+      <c r="A191" s="7">
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -6421,7 +6402,7 @@
       <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="10">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
@@ -6431,7 +6412,7 @@
         <v>33</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -6439,7 +6420,7 @@
       <c r="H192" s="7"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="8">
+      <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -6449,7 +6430,7 @@
         <v>33</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>100</v>
@@ -6459,7 +6440,7 @@
       <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="8">
+      <c r="A194" s="7">
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
@@ -6469,7 +6450,7 @@
         <v>33</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -6477,7 +6458,7 @@
       <c r="H194" s="7"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="10">
+      <c r="A195" s="6">
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -6493,25 +6474,25 @@
       <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="8">
+      <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G196" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G196" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="H196" s="7"/>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="8">
+      <c r="A197" s="7">
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
@@ -6527,29 +6508,29 @@
       <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="10">
+      <c r="A198" s="6">
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G198" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="H198" s="7"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="8">
+      <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -6559,19 +6540,19 @@
         <v>33</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G199" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="8">
+      <c r="A200" s="7">
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
@@ -6587,7 +6568,7 @@
       <c r="H200" s="7"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="10">
+      <c r="A201" s="6">
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -6597,21 +6578,21 @@
         <v>33</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>199</v>
+        <v>329</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>330</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="8">
+      <c r="A202" s="7">
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
@@ -6631,7 +6612,7 @@
       <c r="H202" s="7"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="8">
+      <c r="A203" s="7">
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -6651,7 +6632,7 @@
       <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="10">
+      <c r="A204" s="6">
         <v>203</v>
       </c>
       <c r="B204" s="7" t="s">
@@ -6671,7 +6652,7 @@
       <c r="H204" s="7"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="8">
+      <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
@@ -6691,17 +6672,17 @@
       <c r="H205" s="6"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="8">
+      <c r="A206" s="7">
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E206" s="7">
         <v>10002</v>
@@ -6711,7 +6692,7 @@
       <c r="H206" s="7"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="10">
+      <c r="A207" s="6">
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
@@ -6727,7 +6708,7 @@
       <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="8">
+      <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
@@ -6737,7 +6718,7 @@
         <v>33</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -6745,7 +6726,7 @@
       <c r="H208" s="7"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="8">
+      <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -6755,7 +6736,7 @@
         <v>33</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6" t="s">
@@ -6767,7 +6748,7 @@
       <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="10">
+      <c r="A210" s="6">
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
@@ -6777,7 +6758,7 @@
         <v>33</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
@@ -6785,7 +6766,7 @@
       <c r="H210" s="7"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="8">
+      <c r="A211" s="7">
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
@@ -6795,7 +6776,7 @@
         <v>33</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
@@ -6807,7 +6788,7 @@
       <c r="H211" s="6"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="8">
+      <c r="A212" s="7">
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
@@ -6817,7 +6798,7 @@
         <v>33</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E212" s="7">
         <v>200</v>
@@ -6827,7 +6808,7 @@
       <c r="H212" s="7"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="10">
+      <c r="A213" s="6">
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
@@ -6837,7 +6818,7 @@
         <v>33</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6" t="s">
@@ -6849,7 +6830,7 @@
       <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="8">
+      <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
@@ -6865,7 +6846,7 @@
       <c r="H214" s="7"/>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="8">
+      <c r="A215" s="7">
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
@@ -6875,41 +6856,41 @@
         <v>15</v>
       </c>
       <c r="D215" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E215" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="10">
+      <c r="A216" s="6">
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D216" s="7" t="s">
+      <c r="E216" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E216" s="7" t="s">
+      <c r="F216" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="G216" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G216" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="H216" s="7"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="8">
+      <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
@@ -6919,7 +6900,7 @@
         <v>33</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6" t="s">
@@ -6931,7 +6912,7 @@
       <c r="H217" s="6"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="8">
+      <c r="A218" s="7">
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
@@ -6947,7 +6928,7 @@
       <c r="H218" s="7"/>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="10">
+      <c r="A219" s="6">
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -6957,7 +6938,7 @@
         <v>33</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -6965,7 +6946,7 @@
       <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="8">
+      <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
@@ -6975,7 +6956,7 @@
         <v>33</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>100</v>
@@ -6985,7 +6966,7 @@
       <c r="H220" s="7"/>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="8">
+      <c r="A221" s="7">
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
@@ -6995,7 +6976,7 @@
         <v>33</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -7003,7 +6984,7 @@
       <c r="H221" s="6"/>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="10">
+      <c r="A222" s="6">
         <v>221</v>
       </c>
       <c r="B222" s="7" t="s">
@@ -7019,25 +7000,25 @@
       <c r="H222" s="7"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="8">
+      <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G223" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G223" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="8">
+      <c r="A224" s="7">
         <v>223</v>
       </c>
       <c r="B224" s="7" t="s">
@@ -7200,7 +7181,7 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -7230,7 +7211,7 @@
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -7333,7 +7314,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -7463,7 +7444,7 @@
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="3:3">
@@ -7625,7 +7606,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="3:3">

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432">
   <si>
     <t>Step No</t>
   </si>
@@ -504,9 +505,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -526,9 +524,6 @@
   </si>
   <si>
     <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
   </si>
   <si>
     <t>Insurance type selected</t>
@@ -1338,9 +1333,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1372,16 +1367,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,7 +1422,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1404,21 +1438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,16 +1452,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1450,6 +1484,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,59 +1505,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,7 +1532,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,73 +1580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,13 +1598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,7 +1610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,7 +1634,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1688,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,42 +1718,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1768,6 +1769,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1788,21 +1800,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1837,11 +1834,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,15 +1872,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1886,134 +1898,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2024,6 +2036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,6 +2129,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2408,8 +2436,8 @@
   <sheetPr/>
   <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3833,8 +3861,8 @@
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>45</v>
+      <c r="B66" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>33</v>
@@ -3842,14 +3870,14 @@
       <c r="D66" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -3864,16 +3892,16 @@
         <v>15</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="H67" s="6"/>
     </row>
@@ -3881,23 +3909,23 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>45</v>
+      <c r="B68" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -3912,16 +3940,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H69" s="6"/>
     </row>
@@ -3936,16 +3964,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E70" s="7">
         <v>1235647899</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3960,7 +3988,7 @@
         <v>33</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3978,14 +4006,14 @@
         <v>33</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -4000,16 +4028,16 @@
         <v>15</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E73" s="6">
         <v>97890456789</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H73" s="6"/>
     </row>
@@ -4024,14 +4052,14 @@
         <v>33</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -4046,13 +4074,13 @@
         <v>33</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E75" s="6">
         <v>1230</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>22</v>
@@ -4070,13 +4098,13 @@
         <v>33</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E76" s="7">
         <v>1550</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>22</v>
@@ -4094,11 +4122,11 @@
         <v>33</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>22</v>
@@ -4116,14 +4144,14 @@
         <v>33</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -4138,14 +4166,14 @@
         <v>33</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H79" s="6"/>
     </row>
@@ -4160,14 +4188,14 @@
         <v>33</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -4224,7 +4252,7 @@
         <v>33</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -4284,16 +4312,16 @@
         <v>33</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>151</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -4324,10 +4352,10 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -4342,14 +4370,14 @@
         <v>33</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H89" s="6"/>
     </row>
@@ -4364,14 +4392,14 @@
         <v>33</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -4428,16 +4456,16 @@
         <v>33</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H93" s="6"/>
     </row>
@@ -4468,10 +4496,10 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H95" s="6"/>
     </row>
@@ -4486,16 +4514,16 @@
         <v>15</v>
       </c>
       <c r="D96" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -4510,16 +4538,16 @@
         <v>15</v>
       </c>
       <c r="D97" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="H97" s="6"/>
     </row>
@@ -4576,14 +4604,14 @@
         <v>33</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -4614,7 +4642,7 @@
         <v>33</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4648,14 +4676,14 @@
         <v>33</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H104" s="7"/>
     </row>
@@ -4672,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H105" s="6"/>
     </row>
@@ -4690,14 +4718,14 @@
         <v>33</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -4712,14 +4740,14 @@
         <v>33</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H107" s="6"/>
     </row>
@@ -4750,16 +4778,16 @@
         <v>15</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="H109" s="6"/>
     </row>
@@ -4774,16 +4802,16 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -4798,7 +4826,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E111" s="6">
         <v>9889656446</v>
@@ -4822,14 +4850,14 @@
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -4858,20 +4886,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -4880,20 +4908,20 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -4902,20 +4930,20 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -4924,20 +4952,20 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H117" s="6"/>
     </row>
@@ -4946,20 +4974,20 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -4968,20 +4996,20 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H119" s="6"/>
     </row>
@@ -4990,20 +5018,20 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -5012,20 +5040,20 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H121" s="6"/>
     </row>
@@ -5040,14 +5068,14 @@
         <v>33</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -5136,11 +5164,11 @@
         <v>15</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>41</v>
@@ -5190,14 +5218,14 @@
         <v>33</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5212,14 +5240,14 @@
         <v>15</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H131" s="6"/>
     </row>
@@ -5250,14 +5278,14 @@
         <v>33</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H133" s="6"/>
     </row>
@@ -5272,16 +5300,16 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F134" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -5296,16 +5324,16 @@
         <v>33</v>
       </c>
       <c r="D135" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F135" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="G135" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="H135" s="6"/>
     </row>
@@ -5314,22 +5342,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" s="7" t="s">
+      <c r="F136" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="G136" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -5348,10 +5376,10 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H137" s="6"/>
     </row>
@@ -5380,7 +5408,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -5420,14 +5448,14 @@
         <v>15</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H141" s="6"/>
     </row>
@@ -5516,11 +5544,11 @@
         <v>15</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>41</v>
@@ -5554,14 +5582,14 @@
         <v>33</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -5576,14 +5604,14 @@
         <v>15</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H149" s="6"/>
     </row>
@@ -5614,14 +5642,14 @@
         <v>33</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H151" s="6"/>
     </row>
@@ -5652,7 +5680,7 @@
         <v>33</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -5670,14 +5698,14 @@
         <v>33</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -5692,7 +5720,7 @@
         <v>33</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -5710,14 +5738,14 @@
         <v>33</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -5732,7 +5760,7 @@
         <v>33</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E157" s="6">
         <v>200</v>
@@ -5752,7 +5780,7 @@
         <v>33</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7" t="s">
@@ -5790,10 +5818,10 @@
         <v>15</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
@@ -5804,22 +5832,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="6" t="s">
+      <c r="F161" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="G161" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="H161" s="6"/>
     </row>
@@ -5834,7 +5862,7 @@
         <v>33</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
@@ -5872,7 +5900,7 @@
         <v>33</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -5890,7 +5918,7 @@
         <v>33</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>100</v>
@@ -5910,11 +5938,11 @@
         <v>33</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
@@ -5940,16 +5968,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -5974,20 +6002,20 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -5996,20 +6024,20 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H171" s="6"/>
     </row>
@@ -6024,14 +6052,14 @@
         <v>33</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -6062,16 +6090,16 @@
         <v>33</v>
       </c>
       <c r="D174" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="G174" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -6086,7 +6114,7 @@
         <v>15</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -6114,13 +6142,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E177" s="6">
         <v>10002</v>
@@ -6140,7 +6168,7 @@
         <v>15</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -6168,13 +6196,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -6192,7 +6220,7 @@
         <v>33</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -6210,14 +6238,14 @@
         <v>33</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -6232,7 +6260,7 @@
         <v>33</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -6250,14 +6278,14 @@
         <v>33</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -6272,7 +6300,7 @@
         <v>33</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E185" s="6">
         <v>200</v>
@@ -6292,7 +6320,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7" t="s">
@@ -6330,10 +6358,10 @@
         <v>15</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
@@ -6344,22 +6372,22 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E189" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D189" s="6" t="s">
+      <c r="F189" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="G189" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="H189" s="6"/>
     </row>
@@ -6374,7 +6402,7 @@
         <v>33</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7" t="s">
@@ -6412,7 +6440,7 @@
         <v>33</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -6430,7 +6458,7 @@
         <v>33</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>100</v>
@@ -6450,7 +6478,7 @@
         <v>33</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -6478,16 +6506,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -6512,20 +6540,20 @@
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -6540,14 +6568,14 @@
         <v>33</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H199" s="6"/>
     </row>
@@ -6578,16 +6606,16 @@
         <v>33</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H201" s="6"/>
     </row>
@@ -6602,10 +6630,10 @@
         <v>15</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
@@ -6622,10 +6650,10 @@
         <v>15</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -6642,7 +6670,7 @@
         <v>15</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>108</v>
@@ -6662,7 +6690,7 @@
         <v>33</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E205" s="6">
         <v>2</v>
@@ -6676,13 +6704,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E206" s="7">
         <v>10002</v>
@@ -6718,7 +6746,7 @@
         <v>33</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -6736,14 +6764,14 @@
         <v>33</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H209" s="6"/>
     </row>
@@ -6758,7 +6786,7 @@
         <v>33</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
@@ -6776,14 +6804,14 @@
         <v>33</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H211" s="6"/>
     </row>
@@ -6798,7 +6826,7 @@
         <v>33</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E212" s="7">
         <v>200</v>
@@ -6818,7 +6846,7 @@
         <v>33</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6" t="s">
@@ -6856,10 +6884,10 @@
         <v>15</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -6870,22 +6898,22 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D216" s="7" t="s">
+      <c r="F216" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E216" s="7" t="s">
+      <c r="G216" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -6900,7 +6928,7 @@
         <v>33</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6" t="s">
@@ -6938,7 +6966,7 @@
         <v>33</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -6956,7 +6984,7 @@
         <v>33</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>100</v>
@@ -6976,7 +7004,7 @@
         <v>33</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -7004,16 +7032,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H223" s="6"/>
     </row>
@@ -7034,15 +7062,18 @@
       <c r="H224" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 C12 B13 C13 B14 C14 B15 C15 B16 C16 B7:B8 B9:B11 B17:B18 C7:C8 C9:C11 C17:C18">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B68">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67 B152 B172 B173 B178 B198 B199 B200 B203 B204 B205 B206 B1:B6 B19:B65 B69:B92 B100:B151 B153:B162 B163:B171 B174:B175 B176:B177 B179:B180 B181:B190 B191:B197 B201:B202 B208:B217 B218:B224 B225:B1048576">
+      <formula1>DataList!$C$2:$C$109</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93 C93 B94 C94 B95:B97 B98:B99 C95:C97 C98:C99">
       <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152 B172 B173 B178 B198 B199 B200 B203 B204 B205 B206 B1:B6 B19:B92 B100:B151 B153:B162 B163:B171 B174:B175 B176:B177 B179:B180 B181:B190 B191:B197 B201:B202 B208:B217 B218:B224 B225:B1048576">
-      <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C152 C172 C178 C179 C198 C199 C205 C206 C1:C6 C19:C92 C100:C151 C153:C162 C163:C171 C173:C175 C176:C177 C181:C190 C191:C197 C200:C202 C203:C204 C208:C217 C218:C224 C225:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
@@ -7078,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7086,20 +7117,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -7110,20 +7141,20 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -7131,47 +7162,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -7181,12 +7212,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -7196,45 +7227,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -7244,7 +7275,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7254,152 +7285,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7409,214 +7440,214 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="3:3">
@@ -7626,7 +7657,7 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -172,7 +172,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1332,10 +1332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1367,9 +1367,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,23 +1405,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,6 +1429,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1421,69 +1449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,15 +1464,48 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,7 +1538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,7 +1556,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,19 +1604,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,19 +1682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,109 +1706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,30 +1780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1819,17 +1795,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,20 +1821,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,16 +1853,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1898,130 +1898,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2436,8 +2436,8 @@
   <sheetPr/>
   <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
